--- a/画像タイルチェンジャー説明書.xlsx
+++ b/画像タイルチェンジャー説明書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/386d4b96f3ea471f/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9904C8E7-261A-43D3-84FA-3D1C20BFF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD19107-A554-43BB-BB5D-28B40E588F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{EC99A9FC-2948-4B47-995D-E5CF55C87284}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EC99A9FC-2948-4B47-995D-E5CF55C87284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>w-1</t>
     <phoneticPr fontId="1"/>
@@ -72,12 +72,107 @@
     <t>h-3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像スイッチの時系列</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジケイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０秒後</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5秒後</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10秒後</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15秒後</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20秒後</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25秒後</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定コード</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +204,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +231,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -218,13 +350,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +556,96 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -303,16 +667,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -328,7 +692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6477000" y="571500"/>
-          <a:ext cx="4584700" cy="2101850"/>
+          <a:ext cx="4584700" cy="2317750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -448,6 +812,37 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   &lt;img src="./img/kv8-007.jpg" alt="" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -459,7 +854,23 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
               <a:solidFill>
@@ -470,8 +881,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    &lt;img src="./img/kv8-007.jpg" alt="" /&gt; </a:t>
-          </a:r>
+            <a:t>    &lt;img src="./img/kv8-012.jpg" alt="" /&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -499,16 +919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -526,7 +946,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1422400" y="965200"/>
-          <a:ext cx="5054600" cy="657225"/>
+          <a:ext cx="5054600" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -554,16 +974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -578,7 +998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6502400" y="3175000"/>
+          <a:off x="6502400" y="3365500"/>
           <a:ext cx="4584700" cy="2178050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -750,16 +1170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -776,7 +1196,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2584450" y="1231900"/>
+          <a:off x="2584450" y="1422400"/>
           <a:ext cx="3917950" cy="3032125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -805,209 +1225,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B57F90-622F-EB3C-DD60-FC9B0B138963}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6565900" y="5803900"/>
-          <a:ext cx="4584700" cy="2228850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;div class="</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>image-item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>" data-group="</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>w-3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"&gt; </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;img src="./img/kv2-005.jpg" alt="" /&gt; </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    &lt;img src="./img/kv8-007.jpg" alt="" /&gt; </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/div&gt;</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
@@ -1022,7 +1246,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1056,16 +1280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1081,6 +1305,175 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10553700" y="1155700"/>
+          <a:ext cx="920750" cy="482600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0588DA43-490A-8FE4-DB87-8214AD0393FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11633200" y="1206500"/>
+          <a:ext cx="806450" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フリーフォーム: 図形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D475127-A6F8-9D34-6453-0ABA863B24BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="3962400"/>
           <a:ext cx="920750" cy="819150"/>
         </a:xfrm>
         <a:custGeom>
@@ -1162,23 +1555,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0588DA43-490A-8FE4-DB87-8214AD0393FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A149C4F-74A5-DA97-E36F-374264DD399B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11633200" y="1352550"/>
+          <a:off x="11633200" y="4159250"/>
           <a:ext cx="806450" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1216,7 +1609,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>５秒後</a:t>
+            <a:t>１０秒後</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1225,23 +1618,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="フリーフォーム: 図形 29">
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D475127-A6F8-9D34-6453-0ABA863B24BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8444C5E5-228C-C8CB-AD5D-001268BA5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1642,1964 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10553700" y="3771900"/>
+          <a:off x="14179550" y="6400800"/>
+          <a:ext cx="4565650" cy="3079750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>script.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setImageScroll(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    [ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         { group: "w", interval: 5000 }, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         { group: "h", interval: 10000 }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     50000,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     300000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="吹き出し: 角を丸めた四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF6115A-4CE0-7D8D-9A2B-4DA97911B539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13493750" y="101600"/>
+          <a:ext cx="3041650" cy="1022350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53536"/>
+            <a:gd name="adj2" fmla="val 69571"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>div.image-item </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の中に切り替える画像を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>img</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>タグで定義しておきます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="吹き出し: 角を丸めた四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABEA08-4A9D-E4EA-0048-3B2BFE775C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13595350" y="1231900"/>
+          <a:ext cx="3041650" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53536"/>
+            <a:gd name="adj2" fmla="val 69571"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>data-group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>属性で、何秒後に切り替わるかと順番を定義します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>  書式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>    [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>]-[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>順番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フリーフォーム: 図形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB5808D-FE47-E981-A451-D0880EFCA746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="1778000"/>
+          <a:ext cx="920750" cy="495300"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F51FD8-9A55-812B-6B09-BF683B1EA9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11633200" y="1866900"/>
+          <a:ext cx="1085850" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さらに５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436CB354-F28D-65DA-A37E-41E086461F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="6019800"/>
+          <a:ext cx="4654550" cy="3003550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div class="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>image-item</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" data-group="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>w-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;img src="./img/kv2-012.jpg" alt="" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;img src="./img/kv8-005.jpg" alt="" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;img src="./img/kv8-013.jpg" alt="" /&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;img src="./img/kv8-023.jpg" alt="" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フリーフォーム: 図形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6D1B08-8135-3A21-BCED-DBACD290D9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="6604000"/>
+          <a:ext cx="920750" cy="482600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8E89C7-B7F5-2D7A-40B0-1ACB70FFEDC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11633200" y="6654800"/>
+          <a:ext cx="806450" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フリーフォーム: 図形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E268D571-19E2-0D65-4635-9A12A8EE7F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10541000" y="7207250"/>
+          <a:ext cx="920750" cy="488950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF1C0A7-DE7A-313B-DE8D-E4F7BDA66D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11633200" y="7340600"/>
+          <a:ext cx="1085850" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さらに５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFD7B26-05FF-528D-E78E-8FF604656C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="1022350"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223730C4-DDD2-0F3A-AE46-1EAA7E476657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="1555750"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E65FF4-E403-620B-D031-949AA246A204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="2101850"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B59D12E-CF74-4100-528B-FEE6B6872484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="3771900"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20BF483-B118-AD37-176D-4FA21C9FE428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="4616450"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AD00F1-C800-9A5F-606B-0F8586C95714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="6477000"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBA5425-5253-775B-33E2-452A3C5120B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="7042150"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D20687A-CF69-845F-3524-152B9A75B6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="7607300"/>
+          <a:ext cx="488950" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="フリーフォーム: 図形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F4894A-0A6F-B54C-746E-07C033E1F3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12896850" y="1219200"/>
+          <a:ext cx="577850" cy="984250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDDB126-5184-C112-87FF-744CDE0A611D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="1530350"/>
+          <a:ext cx="1085850" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さらに５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="フリーフォーム: 図形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6FAA8C-DFA2-94F2-46D9-CA69A4E471D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12255500" y="3962400"/>
           <a:ext cx="920750" cy="819150"/>
         </a:xfrm>
         <a:custGeom>
@@ -1331,23 +3681,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A149C4F-74A5-DA97-E36F-374264DD399B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20788F2B-505B-CD6D-389C-6A01CB4C1235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,8 +3705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11633200" y="3968750"/>
-          <a:ext cx="806450" cy="349250"/>
+          <a:off x="13385800" y="4171950"/>
+          <a:ext cx="1085850" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,12 +3734,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>秒後</a:t>
+            <a:t>さらに５秒後</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1398,32 +3744,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="フリーフォーム: 図形 34">
+        <xdr:cNvPr id="41" name="フリーフォーム: 図形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DCE1AA-AC01-A970-B9AC-BB240FCFEE4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5DDEA4-F6E2-EB9B-A610-2A8511E22BA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10553700" y="6407150"/>
-          <a:ext cx="920750" cy="819150"/>
+        <a:xfrm flipV="1">
+          <a:off x="12604750" y="6635750"/>
+          <a:ext cx="577850" cy="1606550"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1504,23 +3850,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FCBD8B-5712-936A-21B9-2776EB696F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5C342E-74C4-EED4-62D2-E55F9F3A7E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,8 +3874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11633200" y="6604000"/>
-          <a:ext cx="806450" cy="349250"/>
+          <a:off x="13430250" y="7296150"/>
+          <a:ext cx="1085850" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,12 +3903,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>15</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>秒後</a:t>
+            <a:t>さらに５秒後</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1571,23 +3913,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8444C5E5-228C-C8CB-AD5D-001268BA5F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8480DDF9-F067-0FA9-7851-A81255D92954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,30 +3937,141 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="4057650"/>
-          <a:ext cx="4565650" cy="2616200"/>
+          <a:off x="6153150" y="8140700"/>
+          <a:ext cx="488950" cy="317500"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フリーフォーム: 図形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8DA3B7-D8ED-7520-47A1-F176A941FCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="7804150"/>
+          <a:ext cx="920750" cy="488950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 920750"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX1" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 819150"/>
+            <a:gd name="connsiteX2" fmla="*/ 920750 w 920750"/>
+            <a:gd name="connsiteY2" fmla="*/ 819150 h 819150"/>
+            <a:gd name="connsiteX3" fmla="*/ 25400 w 920750"/>
+            <a:gd name="connsiteY3" fmla="*/ 819150 h 819150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="920750" h="819150">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="920750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="920750" y="819150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="25400" y="819150"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1629,133 +4082,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>script.js</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>setImageScroll(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    [ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>         { group: "w", interval: 5000 }, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>         { group: "h", interval: 10000 }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>);</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1763,23 +4090,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="吹き出し: 角を丸めた四角形 37">
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF6115A-4CE0-7D8D-9A2B-4DA97911B539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E9DB27-25D7-EFED-D3F4-17983D20C669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,13 +4114,76 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12858750" y="304800"/>
-          <a:ext cx="3041650" cy="1022350"/>
+          <a:off x="11341100" y="7905750"/>
+          <a:ext cx="1085850" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さらに５秒後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="吹き出し: 角を丸めた四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C6C511-15E2-BDF4-2BEF-F14D3561145A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17589500" y="7397750"/>
+          <a:ext cx="3359150" cy="1631950"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -53536"/>
-            <a:gd name="adj2" fmla="val 69571"/>
+            <a:gd name="adj1" fmla="val -86239"/>
+            <a:gd name="adj2" fmla="val 28041"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1818,21 +4208,42 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>div.image-item </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>の中に切り替える画像を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>img</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>タグで定義しておきます</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>50000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t> =&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>１つの画面スクロールが完了するまでの時間（デスクトップ時）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0"/>
+            <a:t>300000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+            <a:t> =&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>１つの画面スクロールが完了するまでの時間（スマホ・タブレット）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1840,23 +4251,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="吹き出し: 角を丸めた四角形 38">
+        <xdr:cNvPr id="47" name="四角形: メモ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABEA08-4A9D-E4EA-0048-3B2BFE775C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30061A8C-F22D-E910-1EF7-373F641C01C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,29 +4275,29 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14077950" y="1543050"/>
-          <a:ext cx="3041650" cy="1498600"/>
+          <a:off x="17805400" y="9188450"/>
+          <a:ext cx="3067050" cy="2260600"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
+        <a:prstGeom prst="foldedCorner">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -53536"/>
-            <a:gd name="adj2" fmla="val 69571"/>
-            <a:gd name="adj3" fmla="val 16667"/>
+            <a:gd name="adj" fmla="val 9364"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1895,46 +4306,37 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>data-group</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>属性で、何秒後に切り替わるかと順番を定義します。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>  書式</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>    [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>グループ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>]-[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>順番</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>値が大きいほど、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　ゆっくり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクロールします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プログラムの使用上、デスクトップとスマホ・タブレットで同じ値を設定するとスマホ・タブレット時のスクロールが早くなるので、こちらで調整をお願いします。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2240,259 +4642,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DA9F4-9401-409F-B19D-A515A9D3D6F1}">
-  <dimension ref="C3:R14"/>
+  <dimension ref="B3:BO28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL12" sqref="BL12"/>
+      <selection activeCell="AR39" sqref="AR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+    <row r="4" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+    <row r="6" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="1" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="10" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+    <row r="8" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+    <row r="9" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+    <row r="10" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="1" t="s">
+    <row r="11" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="1" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
+    <row r="12" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
+    <row r="13" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
+    <row r="14" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="21"/>
+    </row>
+    <row r="17" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="32"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="33"/>
+    </row>
+    <row r="18" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW18" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="24"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="37"/>
+    </row>
+    <row r="19" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW19" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="26"/>
+    </row>
+    <row r="20" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="40"/>
+      <c r="BF20" s="40"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="40"/>
+      <c r="BL20" s="40"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="26"/>
+    </row>
+    <row r="21" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="40"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="40"/>
+      <c r="BI21" s="40"/>
+      <c r="BJ21" s="24"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="39"/>
+      <c r="BN21" s="40"/>
+      <c r="BO21" s="41"/>
+    </row>
+    <row r="22" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW22" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="43"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="43"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="43"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="44"/>
+      <c r="BM22" s="43"/>
+      <c r="BN22" s="44"/>
+      <c r="BO22" s="45"/>
+    </row>
+    <row r="23" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW23" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="44"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="44"/>
+      <c r="BL23" s="44"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="44"/>
+      <c r="BO23" s="45"/>
+    </row>
+    <row r="24" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="43"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="43"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="24"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="43"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="45"/>
+    </row>
+    <row r="25" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="48"/>
+      <c r="BL25" s="48"/>
+      <c r="BM25" s="27"/>
+      <c r="BN25" s="28"/>
+      <c r="BO25" s="29"/>
+    </row>
+    <row r="28" spans="49:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW28" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="O11:R14"/>
-    <mergeCell ref="O3:R10"/>
-    <mergeCell ref="C7:F14"/>
-    <mergeCell ref="C3:F6"/>
-    <mergeCell ref="G3:J6"/>
-    <mergeCell ref="K3:N6"/>
-    <mergeCell ref="G7:J10"/>
-    <mergeCell ref="G11:J14"/>
-    <mergeCell ref="K7:N14"/>
+    <mergeCell ref="K11:M14"/>
+    <mergeCell ref="K3:M10"/>
+    <mergeCell ref="B7:D14"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="E3:G6"/>
+    <mergeCell ref="H3:J6"/>
+    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="E11:G14"/>
+    <mergeCell ref="H7:J14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
